--- a/data/trans_dic/IP19C02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C02-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>26,99%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 11,04</t>
+          <t>2,44; 9,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,07</t>
+          <t>2,11; 8,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,64; 29,59</t>
+          <t>7,64; 16,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,74; 40,69</t>
+          <t>22,1; 37,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,87</t>
+          <t>2,62; 10,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 10,64</t>
+          <t>1,08; 6,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 25,99</t>
+          <t>11,56; 21,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,23; 39,83</t>
+          <t>18,26; 32,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,34</t>
+          <t>3,28; 8,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,72</t>
+          <t>2,17; 6,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,9; 26,47</t>
+          <t>10,86; 17,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,82; 38,35</t>
+          <t>22,02; 32,84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>34,65%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 9,19</t>
+          <t>5,05; 11,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 8,95</t>
+          <t>5,24; 11,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 16,63</t>
+          <t>19,64; 29,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,1; 37,48</t>
+          <t>29,74; 40,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 10,12</t>
+          <t>5,88; 11,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 6,38</t>
+          <t>4,79; 10,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,56; 21,56</t>
+          <t>17,22; 25,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,26; 32,15</t>
+          <t>29,23; 39,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,33</t>
+          <t>6,34; 10,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,39</t>
+          <t>5,64; 9,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,86; 17,64</t>
+          <t>19,9; 26,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,02; 32,84</t>
+          <t>30,82; 38,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C02-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,22 +666,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,27 +691,27 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>34,65%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,88</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,65</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,47; 52,41</t>
+          <t>10,98; 75,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,62</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,09</t>
+          <t>0,0; 79,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0; 77,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,33; 56,89</t>
+          <t>7,26; 67,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,85</t>
+          <t>0; 18,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,64</t>
+          <t>0,0; 66,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,26</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,62; 49,06</t>
+          <t>15,32; 59,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>29,94%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 9,19</t>
+          <t>0,79; 7,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 8,95</t>
+          <t>1,35; 9,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,64; 16,63</t>
+          <t>5,94; 16,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,1; 37,48</t>
+          <t>27,5; 47,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 10,12</t>
+          <t>1,27; 8,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 6,38</t>
+          <t>0,93; 8,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,56; 21,56</t>
+          <t>6,78; 18,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,26; 32,15</t>
+          <t>14,77; 31,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,33</t>
+          <t>1,67; 5,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,39</t>
+          <t>1,62; 6,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,86; 17,64</t>
+          <t>7,68; 16,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,02; 32,84</t>
+          <t>23,38; 37,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>27,67%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 11,04</t>
+          <t>4,59; 13,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,07</t>
+          <t>3,04; 10,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,64; 29,59</t>
+          <t>12,92; 23,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,74; 40,69</t>
+          <t>17,95; 30,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,87</t>
+          <t>3,87; 12,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 10,64</t>
+          <t>1,64; 7,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,22; 25,99</t>
+          <t>13,25; 24,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,23; 39,83</t>
+          <t>25,61; 40,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,34</t>
+          <t>5,2; 11,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,72</t>
+          <t>2,78; 7,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,9; 26,47</t>
+          <t>14,64; 22,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 38,35</t>
+          <t>22,79; 32,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>39,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>36,77%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,18</t>
+          <t>4,64; 11,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,85</t>
+          <t>5,26; 12,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,92; 23,03</t>
+          <t>20,99; 33,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,52; 37,79</t>
+          <t>32,71; 46,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 9,96</t>
+          <t>6,38; 13,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,09</t>
+          <t>5,13; 12,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,77; 22,53</t>
+          <t>18,02; 29,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,13; 35,57</t>
+          <t>28,16; 39,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,89</t>
+          <t>6,06; 11,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,74</t>
+          <t>5,91; 11,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,83; 21,65</t>
+          <t>21,01; 29,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,73; 35,74</t>
+          <t>32,3; 41,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33,71%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,97%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31,47%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,26%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 8,82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 8,86</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16,21; 23,32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29,47; 38,08</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 9,96</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 8,05</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,91; 22,56</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27,38; 36,06</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,65; 8,63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 7,78</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16,84; 21,55</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29,89; 36,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP19C02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C02-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,98; 75,63</t>
+          <t>11,04; 74,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,2</t>
+          <t>0,0; 80,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 67,76</t>
+          <t>8,19; 64,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,64</t>
+          <t>0,0; 66,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 59,34</t>
+          <t>15,29; 57,59</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,13</t>
+          <t>0,78; 7,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 9,89</t>
+          <t>0,86; 9,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 16,77</t>
+          <t>5,78; 16,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,5; 47,37</t>
+          <t>27,78; 46,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 8,46</t>
+          <t>1,31; 8,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,63</t>
+          <t>0,87; 8,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 18,97</t>
+          <t>6,99; 19,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,77; 31,28</t>
+          <t>14,42; 30,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,93</t>
+          <t>1,45; 5,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,76</t>
+          <t>1,68; 7,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 16,07</t>
+          <t>7,48; 15,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,38; 37,03</t>
+          <t>23,53; 37,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 13,45</t>
+          <t>4,6; 13,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 10,08</t>
+          <t>2,96; 10,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 23,76</t>
+          <t>13,17; 23,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,95; 30,72</t>
+          <t>17,97; 30,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 12,32</t>
+          <t>3,68; 12,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,24</t>
+          <t>1,35; 7,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,25; 24,13</t>
+          <t>13,09; 23,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,61; 40,91</t>
+          <t>25,38; 40,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,7</t>
+          <t>5,05; 10,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,23</t>
+          <t>2,82; 7,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 22,05</t>
+          <t>14,24; 22,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,79; 32,31</t>
+          <t>23,15; 32,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 11,32</t>
+          <t>4,75; 11,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 12,89</t>
+          <t>5,33; 12,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,99; 33,93</t>
+          <t>21,22; 34,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,71; 46,48</t>
+          <t>32,65; 46,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 13,72</t>
+          <t>6,15; 13,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 12,84</t>
+          <t>5,15; 12,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 29,76</t>
+          <t>17,89; 29,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,16; 39,95</t>
+          <t>27,99; 40,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 11,23</t>
+          <t>6,13; 11,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 11,31</t>
+          <t>6,12; 11,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,01; 29,69</t>
+          <t>21,02; 29,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,3; 41,86</t>
+          <t>32,46; 41,47</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,82</t>
+          <t>4,96; 9,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,86</t>
+          <t>4,4; 8,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,21; 23,32</t>
+          <t>16,07; 23,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,47; 38,08</t>
+          <t>29,64; 38,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 9,96</t>
+          <t>5,33; 10,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,05</t>
+          <t>4,11; 8,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,91; 22,56</t>
+          <t>15,38; 22,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,38; 36,06</t>
+          <t>27,42; 35,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,63</t>
+          <t>5,61; 8,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,78</t>
+          <t>4,71; 7,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,84; 21,55</t>
+          <t>16,85; 21,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,89; 36,03</t>
+          <t>29,58; 35,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C02-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -661,29 +661,29 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31,87%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>36,76%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>19,02%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>34,03%</t>
         </is>
       </c>
     </row>
@@ -724,42 +724,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 26,42</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 76,68</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7,83; 63,86</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 44,41</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 77,15</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 56,93</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>11,04; 74,16</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 26,42</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 80,15</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 64,49</t>
+          <t>11,46; 74,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,77</t>
+          <t>0,0; 66,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,29; 57,59</t>
+          <t>15,83; 57,8</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20,7%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>3,1%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>3,75%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>10,33%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>36,98%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,35%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>11,84%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>28,92%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,18</t>
+          <t>1,09; 7,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,05</t>
+          <t>0,88; 8,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 16,7</t>
+          <t>6,47; 19,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,78; 46,65</t>
+          <t>13,06; 30,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 8,14</t>
+          <t>0,85; 7,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 8,15</t>
+          <t>1,34; 9,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 19,21</t>
+          <t>5,61; 16,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,42; 30,95</t>
+          <t>26,35; 46,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,64</t>
+          <t>1,6; 6,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,06</t>
+          <t>1,59; 6,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 15,86</t>
+          <t>7,31; 15,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,53; 37,0</t>
+          <t>22,53; 36,2</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30,22%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>8,23%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>5,81%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>18,05%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>24,04%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,31%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>18,08%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>25,38%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 13,49</t>
+          <t>3,8; 12,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 10,08</t>
+          <t>1,33; 7,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,17; 23,96</t>
+          <t>13,3; 23,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,97; 30,38</t>
+          <t>23,59; 38,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 12,05</t>
+          <t>4,68; 13,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,6</t>
+          <t>3,04; 10,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,09; 23,75</t>
+          <t>13,3; 24,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,38; 40,48</t>
+          <t>16,25; 27,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 10,93</t>
+          <t>5,24; 11,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,48</t>
+          <t>2,75; 7,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 22,2</t>
+          <t>14,57; 22,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,15; 32,46</t>
+          <t>21,04; 30,14</t>
         </is>
       </c>
     </row>
@@ -1076,54 +1076,54 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23,29%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32,34%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,45%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>8,56%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>26,98%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>39,23%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,51%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36,64%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>8,57%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>23,29%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>34,0%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>8,45%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>8,57%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
           <t>25,07%</t>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>34,69%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,26</t>
+          <t>6,34; 13,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 12,89</t>
+          <t>5,16; 12,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,22; 34,23</t>
+          <t>18,24; 29,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,65; 46,21</t>
+          <t>25,91; 38,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,84</t>
+          <t>4,77; 11,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 12,88</t>
+          <t>5,3; 12,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,89; 29,35</t>
+          <t>20,74; 33,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,99; 40,01</t>
+          <t>29,34; 43,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 11,08</t>
+          <t>6,15; 10,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 11,46</t>
+          <t>6,19; 11,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 29,78</t>
+          <t>21,15; 29,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,46; 41,47</t>
+          <t>30,1; 39,5</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18,97%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29,71%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>6,67%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>6,34%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>19,55%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>33,71%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,34%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,76%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>18,97%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>30,69%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,03</t>
+          <t>5,47; 9,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,77</t>
+          <t>4,02; 8,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,07; 23,15</t>
+          <t>15,77; 22,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,64; 38,49</t>
+          <t>25,58; 33,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 10,09</t>
+          <t>4,79; 9,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,25</t>
+          <t>4,56; 8,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,38; 22,15</t>
+          <t>15,92; 23,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,42; 35,44</t>
+          <t>27,22; 35,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,62</t>
+          <t>5,61; 8,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,68</t>
+          <t>4,69; 7,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,85; 21,92</t>
+          <t>16,83; 21,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,58; 35,77</t>
+          <t>27,74; 33,94</t>
         </is>
       </c>
     </row>
